--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -1,66 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BANCO DE DADOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ102_Shorts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ202_Shorts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHSP101W_Jersey SS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2225M668_Grafic.T SS" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ103_MiniKit" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHSP101_Jersey SS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHFA202_Shorts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206CHFA012_Grafic.T SS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ101W_Jersey SS" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHCZ101_Jersey SS" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S22080603_Tank" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHSP003_Jersey SS" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHFA201Y_Jersey SS" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHCZ103_Jersey SS" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHCZ303_Jersey SS" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHCZ301_Jersey SS" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHFA201_Jersey SS" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHSP003W_Jersey SS" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101_Jersey SS" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP102_Shorts" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101W_Jersey SS" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101Y_Jersey SS" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ102_Shorts" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ101W_Jersey SS" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ101_Jersey SS" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP105_Shorts" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ202_Shorts" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ105_Shorts" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ103_Shorts" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSIW209_Grafic.T SS" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2025M800_Grafic.T SS" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AWGFX606_Grafic.T SS" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2050MTR300G_Grafic.T SS" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSPM209_Grafic.T SS" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSPW225_Grafic.T SS" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2025W902_Grafic.T SS" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AMGFX200_Grafic.T SS" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AGFXW105.Grafic.T SS" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2050MTR323_TShirt SS" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F193CSPM165_Polo SS" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20RUNMGFX105_Grafic.T SS" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F19AXGM930_Grafic.T SS" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F19AXGM929_Grafic.T SS" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AWGFX600_Grafic.T SS" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20TMGFX161_Grafic.T SS_raglan" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2154MBIC906A_Grafic.T" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW507_Grafic.T SS" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW143_Grafic.T SS" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2125W980_TShirt SS" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIM136SJ_Grafic.T SS" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW100_Dress" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S21BMGFX110_Grafic.T SS" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2125M145_Grafic.T SS" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S221CSIW155_Grafic.T SS" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="BANCO DE DADOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="S2206LHCZ102_Shorts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="S2206LHCZ202_Shorts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="S2206LHSP101W_Jersey SS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="S2225M668_Grafic.T SS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="S2206LHCZ103_MiniKit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="S2206LHSP101_Jersey SS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="S2206LHFA202_Shorts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="S2206CHFA012_Grafic.T SS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="S2206LHCZ101W_Jersey SS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="S2006LHCZ101_Jersey SS" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="S22080603_Tank" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="F2006LHSP003_Jersey SS" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="S2006LHFA201Y_Jersey SS" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="S2006LHCZ103_Jersey SS" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="F2006LHCZ303_Jersey SS" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="F2006LHCZ301_Jersey SS" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="S2006LHFA201_Jersey SS" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="F2006LHSP003W_Jersey SS" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="S2106LHSP101_Jersey SS" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="S2106LHSP102_Shorts" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="S2106LHSP101W_Jersey SS" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="S2106LHSP101Y_Jersey SS" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="S2106LHCZ102_Shorts" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="S2106LHCZ101W_Jersey SS" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="S2106LHCZ101_Jersey SS" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="S2106LHSP105_Shorts" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="S2106LHCZ202_Shorts" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="S2106LHCZ105_Shorts" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="S2106LHCZ103_Shorts" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="F203CSIW209_Grafic.T SS" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="F2025M800_Grafic.T SS" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="F20AWGFX606_Grafic.T SS" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="F2050MTR300G_Grafic.T SS" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="F203CSPM209_Grafic.T SS" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="F203CSPW225_Grafic.T SS" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="S2025W902_Grafic.T SS" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="F20AMGFX200_Grafic.T SS" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="F20AGFXW105.Grafic.T SS" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="S2050MTR323_TShirt SS" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="F193CSPM165_Polo SS" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="F20RUNMGFX105_Grafic.T SS" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="F19AXGM930_Grafic.T SS" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="F19AXGM929_Grafic.T SS" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="F20AWGFX600_Grafic.T SS" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="F20TMGFX161_Grafic.T SS_raglan" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="S2154MBIC906A_Grafic.T" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="S211CSIW507_Grafic.T SS" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="S211CSIW143_Grafic.T SS" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="S2125W980_TShirt SS" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="S211CSIM136SJ_Grafic.T SS" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="S211CSIW100_Dress" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="S21BMGFX110_Grafic.T SS" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="S2125M145_Grafic.T SS" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="S221CSIW155_Grafic.T SS" sheetId="55" state="visible" r:id="rId55"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BANCO DE DADOS'!$A$1:$F$313</definedName>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -1,66 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BANCO DE DADOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="S2206LHCZ102_Shorts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="S2206LHCZ202_Shorts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="S2206LHSP101W_Jersey SS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="S2225M668_Grafic.T SS" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="S2206LHCZ103_MiniKit" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="S2206LHSP101_Jersey SS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="S2206LHFA202_Shorts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="S2206CHFA012_Grafic.T SS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="S2206LHCZ101W_Jersey SS" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="S2006LHCZ101_Jersey SS" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="S22080603_Tank" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="F2006LHSP003_Jersey SS" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="S2006LHFA201Y_Jersey SS" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="S2006LHCZ103_Jersey SS" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="F2006LHCZ303_Jersey SS" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="F2006LHCZ301_Jersey SS" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="S2006LHFA201_Jersey SS" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="F2006LHSP003W_Jersey SS" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="S2106LHSP101_Jersey SS" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="S2106LHSP102_Shorts" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="S2106LHSP101W_Jersey SS" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="S2106LHSP101Y_Jersey SS" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="S2106LHCZ102_Shorts" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="S2106LHCZ101W_Jersey SS" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="S2106LHCZ101_Jersey SS" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="S2106LHSP105_Shorts" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="S2106LHCZ202_Shorts" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="S2106LHCZ105_Shorts" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="S2106LHCZ103_Shorts" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="F203CSIW209_Grafic.T SS" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="F2025M800_Grafic.T SS" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="F20AWGFX606_Grafic.T SS" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="F2050MTR300G_Grafic.T SS" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="F203CSPM209_Grafic.T SS" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="F203CSPW225_Grafic.T SS" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="S2025W902_Grafic.T SS" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="F20AMGFX200_Grafic.T SS" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="F20AGFXW105.Grafic.T SS" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="S2050MTR323_TShirt SS" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="F193CSPM165_Polo SS" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="F20RUNMGFX105_Grafic.T SS" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="F19AXGM930_Grafic.T SS" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="F19AXGM929_Grafic.T SS" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="F20AWGFX600_Grafic.T SS" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="F20TMGFX161_Grafic.T SS_raglan" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="S2154MBIC906A_Grafic.T" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="S211CSIW507_Grafic.T SS" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="S211CSIW143_Grafic.T SS" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="S2125W980_TShirt SS" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="S211CSIM136SJ_Grafic.T SS" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="S211CSIW100_Dress" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="S21BMGFX110_Grafic.T SS" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="S2125M145_Grafic.T SS" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="S221CSIW155_Grafic.T SS" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BANCO DE DADOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ102_Shorts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ202_Shorts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHSP101W_Jersey SS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2225M668_Grafic.T SS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ103_MiniKit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHSP101_Jersey SS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHFA202_Shorts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206CHFA012_Grafic.T SS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2206LHCZ101W_Jersey SS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHCZ101_Jersey SS" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S22080603_Tank" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHSP003_Jersey SS" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHFA201Y_Jersey SS" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHCZ103_Jersey SS" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHCZ303_Jersey SS" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHCZ301_Jersey SS" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2006LHFA201_Jersey SS" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2006LHSP003W_Jersey SS" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101_Jersey SS" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP102_Shorts" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101W_Jersey SS" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP101Y_Jersey SS" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ102_Shorts" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ101W_Jersey SS" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ101_Jersey SS" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHSP105_Shorts" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ202_Shorts" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ105_Shorts" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2106LHCZ103_Shorts" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSIW209_Grafic.T SS" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2025M800_Grafic.T SS" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AWGFX606_Grafic.T SS" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2050MTR300G_Grafic.T SS" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSPM209_Grafic.T SS" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F203CSPW225_Grafic.T SS" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2025W902_Grafic.T SS" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AMGFX200_Grafic.T SS" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AGFXW105.Grafic.T SS" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2050MTR323_TShirt SS" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F193CSPM165_Polo SS" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20RUNMGFX105_Grafic.T SS" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F19AXGM930_Grafic.T SS" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F19AXGM929_Grafic.T SS" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20AWGFX600_Grafic.T SS" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F20TMGFX161_Grafic.T SS_raglan" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2154MBIC906A_Grafic.T" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW507_Grafic.T SS" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW143_Grafic.T SS" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2125W980_TShirt SS" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIM136SJ_Grafic.T SS" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S211CSIW100_Dress" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S21BMGFX110_Grafic.T SS" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2125M145_Grafic.T SS" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S221CSIW155_Grafic.T SS" sheetId="55" state="visible" r:id="rId55"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BANCO DE DADOS'!$A$1:$F$313</definedName>
